--- a/CNIntelligibility/mergedIntelligibility_lda.xlsx
+++ b/CNIntelligibility/mergedIntelligibility_lda.xlsx
@@ -441,152 +441,152 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
     </row>
@@ -597,94 +597,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5676090717315674</v>
+        <v>0.9999691843986512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999982714653016</v>
+        <v>0.5586392879486084</v>
       </c>
       <c r="D2" t="n">
-        <v>0.535697877407074</v>
+        <v>0.9217878580093384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981940388679504</v>
+        <v>0.551300048828125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.273303747177124</v>
+        <v>0.5459778904914856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999262690544128</v>
+        <v>0.0671122148633003</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999790191650392</v>
+        <v>0.1083302870392799</v>
       </c>
       <c r="I2" t="n">
-        <v>0.998850643634796</v>
+        <v>0.09023440629243849</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9997401237487792</v>
+        <v>0.5317378044128418</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9937078952789308</v>
+        <v>0.5370109677314758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9998643398284912</v>
+        <v>0.091351181268692</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5398090481758118</v>
+        <v>0.1537255197763443</v>
       </c>
       <c r="N2" t="n">
-        <v>0.999915599822998</v>
+        <v>0.5535567998886108</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6021381616592407</v>
+        <v>0.5140638947486877</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9981569647789</v>
+        <v>0.0793619081377983</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5574682354927063</v>
+        <v>0.1252305209636688</v>
       </c>
       <c r="R2" t="n">
-        <v>0.999603807926178</v>
+        <v>0.1243387684226036</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0868748649954795</v>
+        <v>0.1365530341863632</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9988570213317872</v>
+        <v>0.5148710608482361</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9999972581863404</v>
+        <v>0.0827617645263671</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9989817142486572</v>
+        <v>0.147268071770668</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9997456073760986</v>
+        <v>0.739279568195343</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9997775554656982</v>
+        <v>0.84541916847229</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9987525939941406</v>
+        <v>0.1970955729484558</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.99977445602417</v>
+        <v>0.5953566431999207</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9996767044067384</v>
+        <v>0.4956611096858978</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9999138116836548</v>
+        <v>0.0695211216807365</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9435847997665404</v>
+        <v>0.1253408342599868</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1408320367336273</v>
+        <v>0.5502889156341553</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5415073037147522</v>
+        <v>0.5985488891601562</v>
       </c>
     </row>
     <row r="3">
@@ -694,94 +694,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998632669448853</v>
+        <v>0.0921756848692894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997247457504272</v>
+        <v>0.1156658977270126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999916553497314</v>
+        <v>0.0983912274241447</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2124051600694656</v>
+        <v>0.9999933242797852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986380934715272</v>
+        <v>0.999413788318634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.998542547225952</v>
+        <v>0.6726590394973755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9996045231819152</v>
+        <v>0.5653063654899597</v>
       </c>
       <c r="I3" t="n">
-        <v>0.999841809272766</v>
+        <v>0.4373155832290649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9926964640617372</v>
+        <v>0.2418628633022308</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9998462200164796</v>
+        <v>0.0917878746986389</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999475479125975</v>
+        <v>0.9257870316505432</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9990444183349608</v>
+        <v>0.1629518568515777</v>
       </c>
       <c r="N3" t="n">
-        <v>0.533912718296051</v>
+        <v>0.5602006316184998</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5146049857139587</v>
+        <v>0.1242077052593231</v>
       </c>
       <c r="P3" t="n">
-        <v>0.999671757221222</v>
+        <v>0.7157734632492065</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9553989171981812</v>
+        <v>0.08388685435056679</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5345684885978699</v>
+        <v>0.537804901599884</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5546610951423645</v>
+        <v>0.2201581001281738</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7165859341621399</v>
+        <v>0.0999944657087326</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8918930888175964</v>
+        <v>0.1179049685597419</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9999324083328248</v>
+        <v>0.5672364234924316</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9999121427536012</v>
+        <v>0.9924123287200928</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9996708631515504</v>
+        <v>0.1104270443320274</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9981446266174316</v>
+        <v>0.5403324365615845</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9683378934860229</v>
+        <v>0.5462654232978821</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9999470114707948</v>
+        <v>0.5498017072677612</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9999988079071044</v>
+        <v>0.4743365049362182</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9997575879096984</v>
+        <v>0.1648815423250198</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7761451005935669</v>
+        <v>0.5678654313087463</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9998124837875366</v>
+        <v>0.9529471397399902</v>
       </c>
     </row>
     <row r="4">
@@ -791,94 +791,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9966397285461426</v>
+        <v>0.5675134658813477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992216229438782</v>
+        <v>0.5896638631820679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9983325600624084</v>
+        <v>0.9997352361679076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8601358532905579</v>
+        <v>0.5432498455047607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1593918204307556</v>
+        <v>0.6377559304237366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.994653046131134</v>
+        <v>0.1349287033081054</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5469995737075806</v>
+        <v>0.5547370910644531</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5987779498100281</v>
+        <v>0.100570760667324</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9990439414978028</v>
+        <v>0.1390591412782669</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9938408136367798</v>
+        <v>0.5476517081260681</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5416423678398132</v>
+        <v>0.9985939264297484</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9180890321731568</v>
+        <v>0.6511080861091614</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6127634048461914</v>
+        <v>0.2696462273597717</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5525544285774231</v>
+        <v>0.5818136930465698</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5680564641952515</v>
+        <v>0.6066429615020752</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7548807859420776</v>
+        <v>0.540242075920105</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9868651628494264</v>
+        <v>0.1284207552671432</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5740130543708801</v>
+        <v>0.5568676590919495</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6537195444107056</v>
+        <v>0.6151449084281921</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9996747374534608</v>
+        <v>0.1368651837110519</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9845908880233764</v>
+        <v>0.1144936233758926</v>
       </c>
       <c r="W4" t="n">
-        <v>0.614862859249115</v>
+        <v>0.07632001489400859</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8738628625869751</v>
+        <v>0.2368681728839874</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5854615569114685</v>
+        <v>0.5587248802185059</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6241465210914612</v>
+        <v>0.1005343273282051</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5822058916091919</v>
+        <v>0.9968640804290771</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9998939633369446</v>
+        <v>0.123544692993164</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9994419813156128</v>
+        <v>0.5636963248252869</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6610114574432373</v>
+        <v>0.2969245910644531</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9995464086532592</v>
+        <v>0.1395400464534759</v>
       </c>
     </row>
     <row r="5">
@@ -888,94 +888,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5416707396507263</v>
+        <v>0.147307887673378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.994907021522522</v>
+        <v>0.7243571281433105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5445296764373779</v>
+        <v>0.5486099720001221</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5484927296638489</v>
+        <v>0.1046394929289817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9963295459747314</v>
+        <v>0.1954048722982406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5404810905456543</v>
+        <v>0.5476073026657104</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9979935884475708</v>
+        <v>0.5079522132873535</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6890542507171631</v>
+        <v>0.9938210248947144</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5833451747894287</v>
+        <v>0.5953322649002075</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9994550943374634</v>
+        <v>0.5548266172409058</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5299482345581055</v>
+        <v>0.5799340009689331</v>
       </c>
       <c r="M5" t="n">
-        <v>0.999796748161316</v>
+        <v>0.1339991092681884</v>
       </c>
       <c r="N5" t="n">
-        <v>0.997359037399292</v>
+        <v>0.1461816132068634</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9993603229522704</v>
+        <v>0.5433889031410217</v>
       </c>
       <c r="P5" t="n">
-        <v>0.545767068862915</v>
+        <v>0.1779004335403442</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9910703897476196</v>
+        <v>0.1110710054636001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.64457106590271</v>
+        <v>0.131792664527893</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6066584587097168</v>
+        <v>0.5634357929229736</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3633762300014496</v>
+        <v>0.9828658103942872</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1012804433703422</v>
+        <v>0.08821436762809751</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9970741271972656</v>
+        <v>0.9704989790916444</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9968464374542236</v>
+        <v>0.5902800559997559</v>
       </c>
       <c r="X5" t="n">
-        <v>0.985998511314392</v>
+        <v>0.6687490940093994</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9996588230133056</v>
+        <v>0.1277603060007095</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9996113777160645</v>
+        <v>0.0890243873000145</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9996542930603028</v>
+        <v>0.6377832889556885</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8310126066207886</v>
+        <v>0.5542581677436829</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8563510179519653</v>
+        <v>0.1567015051841735</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.989544689655304</v>
+        <v>0.2434073686599731</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9998222589492798</v>
+        <v>0.2896164059638977</v>
       </c>
     </row>
     <row r="6">
@@ -985,94 +985,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9076354503631592</v>
+        <v>0.5738949775695801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9994879961013794</v>
+        <v>0.4872933030128479</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999941885471344</v>
+        <v>0.9927032589912416</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999834299087524</v>
+        <v>0.9976075887680054</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8935072422027588</v>
+        <v>0.9998750686645508</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999600648880004</v>
+        <v>0.3296751379966736</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9984769821166992</v>
+        <v>0.247974008321762</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9997528791427612</v>
+        <v>0.5182293653488159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7918789386749268</v>
+        <v>0.3764272034168243</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999865293502808</v>
+        <v>0.9998732805252076</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9998493194580078</v>
+        <v>0.5465936660766602</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5330799221992493</v>
+        <v>0.5332302451133728</v>
       </c>
       <c r="N6" t="n">
-        <v>0.999929904937744</v>
+        <v>0.5369990468025208</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9817182421684264</v>
+        <v>0.6023513078689575</v>
       </c>
       <c r="P6" t="n">
-        <v>0.534496009349823</v>
+        <v>0.09686225652694699</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9998933076858521</v>
+        <v>0.9928282499313354</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9993377923965454</v>
+        <v>0.087965078651905</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9999969005584716</v>
+        <v>0.5638436079025269</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6432370543479919</v>
+        <v>0.2745811939239502</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9999929666519164</v>
+        <v>0.1577331125736236</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5406632423400879</v>
+        <v>0.0813017785549163</v>
       </c>
       <c r="W6" t="n">
-        <v>0.868975043296814</v>
+        <v>0.0814441218972206</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9616479873657228</v>
+        <v>0.5580207705497742</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9994227290153505</v>
+        <v>0.5414751768112183</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9998737573623656</v>
+        <v>0.5682132244110107</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9999379515647888</v>
+        <v>0.5558623075485229</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9995132088661194</v>
+        <v>0.9969015717506408</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9995142817497252</v>
+        <v>0.5591541528701782</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5416128039360046</v>
+        <v>0.1422088295221328</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9999545812606812</v>
+        <v>0.09708221256732941</v>
       </c>
     </row>
     <row r="7">
@@ -1082,94 +1082,94 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5504695177078247</v>
+        <v>0.09963139891624451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9998490810394288</v>
+        <v>0.1018904745578765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4445425868034363</v>
+        <v>0.9974588751792908</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0854076892137527</v>
+        <v>0.542193591594696</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999779462814332</v>
+        <v>0.0855560675263404</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999242424964904</v>
+        <v>0.0990872979164123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999767541885376</v>
+        <v>0.076384536921978</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1004849597811698</v>
+        <v>0.0840570330619812</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5497373342514038</v>
+        <v>0.1846983730792999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.999553680419922</v>
+        <v>0.194009244441986</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9998884201049804</v>
+        <v>0.9293341636657716</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9988250732421876</v>
+        <v>0.9999308586120604</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9999318718910216</v>
+        <v>0.99992573261261</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9998710155487061</v>
+        <v>0.999992847442627</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9999883770942688</v>
+        <v>0.5347291231155396</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.999689280986786</v>
+        <v>0.1004743203520774</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6740236878395081</v>
+        <v>0.1081999093294143</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1856490671634674</v>
+        <v>0.6070256233215332</v>
       </c>
       <c r="T7" t="n">
-        <v>0.996257185935974</v>
+        <v>0.1537310183048248</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5355706810951233</v>
+        <v>0.2261282205581665</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5092474222183228</v>
+        <v>0.5330775380134583</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9993805289268494</v>
+        <v>0.1196515411138534</v>
       </c>
       <c r="X7" t="n">
-        <v>0.999117374420166</v>
+        <v>0.08021198213100431</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.999212384223938</v>
+        <v>0.1228439509868621</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.9959633350372314</v>
+        <v>0.0918855518102645</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9952232837677002</v>
+        <v>0.06429401040077209</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9998242259025574</v>
+        <v>0.1446925103664398</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.9998989105224608</v>
+        <v>0.1347186118364334</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.9836857318878174</v>
+        <v>0.0918121337890625</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9999489188194276</v>
+        <v>0.1353644132614135</v>
       </c>
     </row>
     <row r="8">
@@ -1179,94 +1179,94 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.725428581237793</v>
+        <v>0.0710335671901702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.999303102493286</v>
+        <v>0.1056046411395073</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999200105667114</v>
+        <v>0.09066511690616599</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9925329685211182</v>
+        <v>0.0930738374590873</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997869729995728</v>
+        <v>0.4998903274536133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999074935913086</v>
+        <v>0.5500493049621582</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9985806941986084</v>
+        <v>0.591219961643219</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8709725141525269</v>
+        <v>0.5512614250183105</v>
       </c>
       <c r="J8" t="n">
-        <v>0.999447464942932</v>
+        <v>0.5846875905990601</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0751043185591697</v>
+        <v>0.7548974752426147</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5412986278533936</v>
+        <v>0.0898834317922592</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8422470092773438</v>
+        <v>0.3486968278884887</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9205055832862854</v>
+        <v>0.08667512983083719</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9999823570251464</v>
+        <v>0.5342602729797363</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9997363686561584</v>
+        <v>0.210630252957344</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.596892237663269</v>
+        <v>0.5522487759590149</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9709007740020752</v>
+        <v>0.4582163393497467</v>
       </c>
       <c r="S8" t="n">
-        <v>0.999367892742157</v>
+        <v>0.1064243018627166</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8122975826263428</v>
+        <v>0.20807446539402</v>
       </c>
       <c r="U8" t="n">
-        <v>0.998282790184021</v>
+        <v>0.1071005761623382</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6254602670669556</v>
+        <v>0.0861625522375106</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4262877702713012</v>
+        <v>0.5741074085235596</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9997662305831908</v>
+        <v>0.1655215620994568</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9995206594467164</v>
+        <v>0.2343257069587707</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.9999914765357972</v>
+        <v>0.9987935423851012</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9793521165847778</v>
+        <v>0.0758150368928909</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5488501191139221</v>
+        <v>0.6947570443153381</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.999244749546051</v>
+        <v>0.5464299321174622</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.9992142915725708</v>
+        <v>0.5705709457397461</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9910825490951538</v>
+        <v>0.573949933052063</v>
       </c>
     </row>
     <row r="9">
@@ -1276,94 +1276,94 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9921685457229614</v>
+        <v>0.1392027139663696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9986677765846252</v>
+        <v>0.2622828781604767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9648817777633668</v>
+        <v>0.7533143162727356</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9981545209884644</v>
+        <v>0.5364330410957336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992233514785768</v>
+        <v>0.097367838025093</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9317246079444884</v>
+        <v>0.1332870423793792</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9997378587722778</v>
+        <v>0.1066328138113021</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9991881251335144</v>
+        <v>0.9941038489341736</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5713273882865906</v>
+        <v>0.0916658490896225</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9996664524078368</v>
+        <v>0.0838378369808197</v>
       </c>
       <c r="L9" t="n">
-        <v>0.880856990814209</v>
+        <v>0.5384162664413452</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9991844892501832</v>
+        <v>0.1315595507621765</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9996270537376404</v>
+        <v>0.5557628870010376</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5476088523864746</v>
+        <v>0.0991174504160881</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1586239486932754</v>
+        <v>0.94679594039917</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9993886947631836</v>
+        <v>0.5522509813308716</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6007469892501831</v>
+        <v>0.5761023163795471</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5655030608177185</v>
+        <v>0.1804759502410888</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9996410608291626</v>
+        <v>0.6094294786453247</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9997986555099488</v>
+        <v>0.5337331295013428</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9995614290237428</v>
+        <v>0.5544489622116089</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9985838532447816</v>
+        <v>0.0932127684354782</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4130797982215881</v>
+        <v>0.350520372390747</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3516498804092407</v>
+        <v>0.0952755361795425</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9996935129165648</v>
+        <v>0.1275812983512878</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6592943072319031</v>
+        <v>0.1076375022530555</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.9999779462814332</v>
+        <v>0.2309798449277877</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.710607647895813</v>
+        <v>0.2544309794902801</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9963696002960204</v>
+        <v>0.1010694950819015</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3638649582862854</v>
+        <v>0.963388979434967</v>
       </c>
     </row>
     <row r="10">
@@ -1373,94 +1373,94 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9962074756622314</v>
+        <v>0.07170736789703359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9982438683509828</v>
+        <v>0.0825699120759964</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999253273010254</v>
+        <v>0.08842546492815009</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996243715286256</v>
+        <v>0.5263113379478455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.543521523475647</v>
+        <v>0.1773886680603027</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5417998433113098</v>
+        <v>0.0980200767517089</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8626421093940735</v>
+        <v>0.5381701588630676</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9999904036521912</v>
+        <v>0.9996120929718018</v>
       </c>
       <c r="J10" t="n">
-        <v>0.999634563922882</v>
+        <v>0.2244972884654998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5364570021629333</v>
+        <v>0.5405526757240295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.999990463256836</v>
+        <v>0.5602583885192871</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9999974370002748</v>
+        <v>0.5299213528633118</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5311390161514282</v>
+        <v>0.9996161460876464</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9998806715011596</v>
+        <v>0.1553556025028228</v>
       </c>
       <c r="P10" t="n">
-        <v>0.999849796295166</v>
+        <v>0.9999839067459106</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.653958797454834</v>
+        <v>0.6174784898757935</v>
       </c>
       <c r="R10" t="n">
-        <v>0.999830961227417</v>
+        <v>0.5584224462509155</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9997586011886596</v>
+        <v>0.9999966025352478</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9993658065795898</v>
+        <v>0.09400671720504759</v>
       </c>
       <c r="U10" t="n">
-        <v>0.998672902584076</v>
+        <v>0.4244792461395263</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9995086193084716</v>
+        <v>0.1225875318050384</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5870978236198425</v>
+        <v>0.0901173651218414</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9962880611419678</v>
+        <v>0.08365949988365171</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.998157262802124</v>
+        <v>0.5910171866416931</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.99967622756958</v>
+        <v>0.5297211408615112</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5399831533432007</v>
+        <v>0.1085228323936462</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5331612229347229</v>
+        <v>0.0742841958999633</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.9999502897262572</v>
+        <v>0.1057857424020767</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7038066983222961</v>
+        <v>0.0876468643546104</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.212446928024292</v>
+        <v>0.083220824599266</v>
       </c>
     </row>
     <row r="11">
@@ -1470,94 +1470,94 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997758865356444</v>
+        <v>0.9997810125350952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4569806456565857</v>
+        <v>0.5392258763313293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8301308155059814</v>
+        <v>0.365738570690155</v>
       </c>
       <c r="E11" t="n">
-        <v>0.589979350566864</v>
+        <v>0.5521928668022156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5350579023361206</v>
+        <v>0.53818678855896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9988179206848145</v>
+        <v>0.3053551912307739</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9995566606521606</v>
+        <v>0.0722669214010238</v>
       </c>
       <c r="I11" t="n">
-        <v>0.978707194328308</v>
+        <v>0.08386863023042671</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9995583295822144</v>
+        <v>0.0971349626779556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.999292254447937</v>
+        <v>0.0863552391529083</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9999415278434752</v>
+        <v>0.5311046838760376</v>
       </c>
       <c r="M11" t="n">
-        <v>0.998792290687561</v>
+        <v>0.5366844534873962</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9989526271820068</v>
+        <v>0.0830042585730552</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6611153483390808</v>
+        <v>0.5658891201019287</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5474842190742493</v>
+        <v>0.999549388885498</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9999918937683104</v>
+        <v>0.1084405705332756</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9988150596618652</v>
+        <v>0.1213342919945716</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9989006519317628</v>
+        <v>0.5467825531959534</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8914759159088135</v>
+        <v>0.1434667557477951</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9999972581863404</v>
+        <v>0.9849935173988342</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6973457336425781</v>
+        <v>0.1451037973165512</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8334475755691528</v>
+        <v>0.9270854592323304</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9997835159301758</v>
+        <v>0.9426103830337524</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9929412007331848</v>
+        <v>0.5467378497123718</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.9999579787254332</v>
+        <v>0.5416718125343323</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6623283624649048</v>
+        <v>0.9300855398178099</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.9999732971191406</v>
+        <v>0.2248456478118896</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.979749083518982</v>
+        <v>0.1137782409787178</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.9881770610809326</v>
+        <v>0.1881894469261169</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9738526344299316</v>
+        <v>0.1390886902809143</v>
       </c>
     </row>
     <row r="12">
@@ -1567,94 +1567,94 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998847246170044</v>
+        <v>0.08931300044059751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5367461442947388</v>
+        <v>0.5904689431190491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5367972850799561</v>
+        <v>0.0845787301659584</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9992738962173462</v>
+        <v>0.1254710257053375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8893672227859497</v>
+        <v>0.5401288270950317</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9999902844429016</v>
+        <v>0.0882051736116409</v>
       </c>
       <c r="H12" t="n">
-        <v>0.999692440032959</v>
+        <v>0.9275304079055786</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5685303211212158</v>
+        <v>0.0812504589557647</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9987306594848632</v>
+        <v>0.8895320296287537</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5558229088783264</v>
+        <v>0.5534415245056152</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6084508299827576</v>
+        <v>0.9491131901741028</v>
       </c>
       <c r="M12" t="n">
-        <v>0.924258828163147</v>
+        <v>0.5943312048912048</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5636354088783264</v>
+        <v>0.4804093539714813</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5278699398040771</v>
+        <v>0.1068073287606239</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5312433242797852</v>
+        <v>0.541217565536499</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9999960064888</v>
+        <v>0.9525707960128784</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2970306277275085</v>
+        <v>0.08033259212970729</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4748686850070953</v>
+        <v>0.1040912717580795</v>
       </c>
       <c r="T12" t="n">
-        <v>0.999637246131897</v>
+        <v>0.9982745051383972</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5290928483009338</v>
+        <v>0.1166500225663185</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9995117783546448</v>
+        <v>0.1399953663349151</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9998059272766112</v>
+        <v>0.1622287631034851</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9935914874076844</v>
+        <v>0.5327041149139404</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5790355205535889</v>
+        <v>0.0876818150281906</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.9999459981918336</v>
+        <v>0.495695561170578</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9999952912330629</v>
+        <v>0.4509766101837158</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.9998849034309388</v>
+        <v>0.1205077171325683</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9986010789871216</v>
+        <v>0.1155406311154365</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9979341626167296</v>
+        <v>0.0801132470369339</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9977166652679444</v>
+        <v>0.0857017263770103</v>
       </c>
     </row>
     <row r="13">
@@ -1664,94 +1664,94 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9978463649749756</v>
+        <v>0.0880143865942955</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0810106396675109</v>
+        <v>0.09879276156425471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999969720840454</v>
+        <v>0.9999189376831056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996998310089112</v>
+        <v>0.5690705180168152</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6030557155609131</v>
+        <v>0.2856818735599518</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9999175667762756</v>
+        <v>0.5621379613876343</v>
       </c>
       <c r="H13" t="n">
-        <v>0.963362455368042</v>
+        <v>0.07360440492629999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.999722957611084</v>
+        <v>0.091059923171997</v>
       </c>
       <c r="J13" t="n">
-        <v>0.99996018409729</v>
+        <v>0.8368867635726929</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7690556049346924</v>
+        <v>0.076478824019432</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9999530911445618</v>
+        <v>0.08205078542232511</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9992579221725464</v>
+        <v>0.3837381601333618</v>
       </c>
       <c r="N13" t="n">
-        <v>0.721554160118103</v>
+        <v>0.7073151469230652</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9999895095825196</v>
+        <v>0.5369647741317749</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9997899532318116</v>
+        <v>0.551118016242981</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5459614992141724</v>
+        <v>0.0873815193772316</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6865782141685486</v>
+        <v>0.08127337694168089</v>
       </c>
       <c r="S13" t="n">
-        <v>0.54913330078125</v>
+        <v>0.0841542556881904</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5359397530555725</v>
+        <v>0.1410588920116424</v>
       </c>
       <c r="U13" t="n">
-        <v>0.999980092048645</v>
+        <v>0.116745188832283</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9997880458831788</v>
+        <v>0.173279657959938</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8460893034934998</v>
+        <v>0.1251578778028488</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9726744294166564</v>
+        <v>0.08624041080474849</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9995523691177368</v>
+        <v>0.0848084241151809</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.9994487762451172</v>
+        <v>0.5657669305801392</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9999898672103882</v>
+        <v>0.5381131172180176</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.9999263286590576</v>
+        <v>0.6273810267448425</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.949082851409912</v>
+        <v>0.2035959661006927</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.9950321912765504</v>
+        <v>0.541287899017334</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9999602437019348</v>
+        <v>0.9996915459632874</v>
       </c>
     </row>
     <row r="14">
@@ -1761,94 +1761,94 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998952150344848</v>
+        <v>0.0879717245697975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999954700469972</v>
+        <v>0.7074523568153381</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6313952207565308</v>
+        <v>0.9124001264572144</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998238086700439</v>
+        <v>0.2628293335437774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998621940612792</v>
+        <v>0.5521335601806641</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9140154719352722</v>
+        <v>0.5600910186767578</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9998973608016968</v>
+        <v>0.5352261066436768</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2870393097400665</v>
+        <v>0.211374431848526</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5965192914009094</v>
+        <v>0.0745018422603607</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9996131062507628</v>
+        <v>0.6099660992622375</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999954700469972</v>
+        <v>0.0746399462223053</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9997528195381165</v>
+        <v>0.0684032216668129</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1139232367277145</v>
+        <v>0.0724805444478988</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9999281764030457</v>
+        <v>0.2000123560428619</v>
       </c>
       <c r="P14" t="n">
-        <v>0.999294102191925</v>
+        <v>0.1907227635383606</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9713857173919678</v>
+        <v>0.0954941362142562</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5458300113677979</v>
+        <v>0.07067073881626119</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9999043941497804</v>
+        <v>0.1093805134296417</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5509881377220154</v>
+        <v>0.1660430282354354</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5389883518218994</v>
+        <v>0.148693561553955</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9998759031295776</v>
+        <v>0.146223098039627</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9954875111579896</v>
+        <v>0.7346036434173584</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9994673728942872</v>
+        <v>0.5511401295661926</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5944441556930542</v>
+        <v>0.1051401942968368</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.999996781349182</v>
+        <v>0.4776782095432281</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.9998486042022704</v>
+        <v>0.4608882069587707</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.7981185913085938</v>
+        <v>0.1506351977586746</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.9995664954185486</v>
+        <v>0.5619819760322571</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.9992440938949584</v>
+        <v>0.5492717027664185</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.5380248427391052</v>
+        <v>0.08129072189331051</v>
       </c>
     </row>
     <row r="15">
@@ -1858,94 +1858,94 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.91593998670578</v>
+        <v>0.0791623890399932</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996030926704408</v>
+        <v>0.5450560450553894</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5385081768035889</v>
+        <v>0.5243570804595947</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9992846250534058</v>
+        <v>0.098965972661972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9992936849594116</v>
+        <v>0.2422924935817718</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6144523620605469</v>
+        <v>0.0962070450186729</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5526415109634399</v>
+        <v>0.0862790569663047</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5684100985527039</v>
+        <v>0.9272364377975464</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9983407258987428</v>
+        <v>0.1274549663066864</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9990644454956056</v>
+        <v>0.6162120699882507</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9999945163726808</v>
+        <v>0.9998457431793212</v>
       </c>
       <c r="M15" t="n">
-        <v>0.988487720489502</v>
+        <v>0.544094979763031</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999955713748932</v>
+        <v>0.5551826357841492</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6902202963829041</v>
+        <v>0.5588201880455017</v>
       </c>
       <c r="P15" t="n">
-        <v>0.999897837638855</v>
+        <v>0.5555063486099243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5451260805130005</v>
+        <v>0.1318776160478592</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9995678663253784</v>
+        <v>0.1775471121072769</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9873273372650146</v>
+        <v>0.095864400267601</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9998664855957032</v>
+        <v>0.5712373852729797</v>
       </c>
       <c r="U15" t="n">
-        <v>0.999972939491272</v>
+        <v>0.07603861391544341</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9998698234558104</v>
+        <v>0.5605606436729431</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9967423677444458</v>
+        <v>0.103610523045063</v>
       </c>
       <c r="X15" t="n">
-        <v>0.170155867934227</v>
+        <v>0.0727068856358528</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9940060973167421</v>
+        <v>0.1220926195383071</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.9455769062042236</v>
+        <v>0.5075450539588928</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5491228103637695</v>
+        <v>0.1530936509370803</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.5293621420860291</v>
+        <v>0.1348588466644287</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5532868504524231</v>
+        <v>0.0790521204471588</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.9995479583740234</v>
+        <v>0.5420958995819092</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9511289596557616</v>
+        <v>0.6070144176483154</v>
       </c>
     </row>
     <row r="16">
@@ -1955,94 +1955,94 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5466160774230957</v>
+        <v>0.1613212972879409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5283523797988892</v>
+        <v>0.5378674864768982</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6863950490951538</v>
+        <v>0.9999197125434875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9990071058273317</v>
+        <v>0.09310129284858699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8405684232711792</v>
+        <v>0.8361947536468506</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5354668498039246</v>
+        <v>0.1059465035796165</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5577935576438904</v>
+        <v>0.5457459688186646</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9978891015052797</v>
+        <v>0.5416975021362305</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9987504482269288</v>
+        <v>0.5143909454345703</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5446519255638123</v>
+        <v>0.5436042547225952</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6987937092781067</v>
+        <v>0.4849416613578796</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9999004602432252</v>
+        <v>0.07489576935768121</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9999679327011108</v>
+        <v>0.5464867949485779</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9999842047691344</v>
+        <v>0.5349328517913818</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7686502933502197</v>
+        <v>0.6415356993675232</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9999713897705078</v>
+        <v>0.0985332056879997</v>
       </c>
       <c r="R16" t="n">
-        <v>0.584942102432251</v>
+        <v>0.1210831105709075</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6798691749572754</v>
+        <v>0.4630816280841827</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5789049863815308</v>
+        <v>0.6761500835418701</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7071431875228882</v>
+        <v>0.3866903781890869</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9922937154769896</v>
+        <v>0.7260574698448181</v>
       </c>
       <c r="W16" t="n">
-        <v>0.991848349571228</v>
+        <v>0.9974589347839355</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9979249238967896</v>
+        <v>0.5490710735321045</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6123310923576355</v>
+        <v>0.1023868024349212</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9961800575256348</v>
+        <v>0.1208597347140312</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6957626938819885</v>
+        <v>0.9549038410186768</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4625381827354431</v>
+        <v>0.1171081513166427</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5395721793174744</v>
+        <v>0.2134499102830886</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.6060304641723633</v>
+        <v>0.1093906313180923</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9996122121810912</v>
+        <v>0.5544026494026184</v>
       </c>
     </row>
     <row r="17">
@@ -2052,94 +2052,94 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.302801638841629</v>
+        <v>0.1023293063044548</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5704013705253601</v>
+        <v>0.2075879573822021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.963367223739624</v>
+        <v>0.5425158143043518</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9295933246612548</v>
+        <v>0.08921217173337929</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999971330165863</v>
+        <v>0.1716316044330597</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8612658977508545</v>
+        <v>0.6107456088066101</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9998153448104858</v>
+        <v>0.8770700693130493</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3102128803730011</v>
+        <v>0.5951201915740967</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6067853569984436</v>
+        <v>0.7749617695808411</v>
       </c>
       <c r="K17" t="n">
-        <v>0.998775839805603</v>
+        <v>0.3101508915424347</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7025212645530701</v>
+        <v>0.4947066605091095</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9980258345603944</v>
+        <v>0.207547128200531</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5722955465316772</v>
+        <v>0.2264827638864517</v>
       </c>
       <c r="O17" t="n">
-        <v>0.56346595287323</v>
+        <v>0.5444965362548828</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6978384256362915</v>
+        <v>0.5664705038070679</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.993891716003418</v>
+        <v>0.9990437030792236</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7191838026046753</v>
+        <v>0.9997274875640868</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9990683794021606</v>
+        <v>0.6746207475662231</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6219642758369446</v>
+        <v>0.2163426280021667</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9999133348464966</v>
+        <v>0.1810858100652694</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9972398281097412</v>
+        <v>0.5124584436416626</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9971420168876648</v>
+        <v>0.097320556640625</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8421180844306946</v>
+        <v>0.1747564673423767</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8192449808120728</v>
+        <v>0.1609588265419006</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.9985984563827516</v>
+        <v>0.09822849184274671</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5466127991676331</v>
+        <v>0.1070173233747482</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.999963402748108</v>
+        <v>0.154569000005722</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9979459047317504</v>
+        <v>0.1996505558490753</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.8327673077583313</v>
+        <v>0.0898935198783874</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9992914795875548</v>
+        <v>0.1714724600315094</v>
       </c>
     </row>
     <row r="18">
@@ -2149,94 +2149,94 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9997502565383912</v>
+        <v>0.0949165672063827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987916946411132</v>
+        <v>0.09094070643186559</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99999737739563</v>
+        <v>0.5133892297744751</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5502336025238037</v>
+        <v>0.099857285618782</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998584985733032</v>
+        <v>0.999994456768036</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9946483373641968</v>
+        <v>0.5483854413032532</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5979630351066589</v>
+        <v>0.9998332858085632</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9964813590049744</v>
+        <v>0.9999938011169434</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8247900605201721</v>
+        <v>0.5317329168319702</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9986491203308104</v>
+        <v>0.5490790009498596</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5389128923416138</v>
+        <v>0.9989719986915588</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7233545184135437</v>
+        <v>0.8302223086357117</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6908848285675049</v>
+        <v>0.3728649020195007</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6300084590911865</v>
+        <v>0.1087129116058349</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5499511361122131</v>
+        <v>0.0804916992783546</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9999988079071044</v>
+        <v>0.5848013758659363</v>
       </c>
       <c r="R18" t="n">
-        <v>0.825656533241272</v>
+        <v>0.1322126388549804</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7147537469863892</v>
+        <v>0.5633395910263062</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9704052209854126</v>
+        <v>0.579992949962616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5397063493728638</v>
+        <v>0.5382513403892517</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7359525561332703</v>
+        <v>0.5719218254089355</v>
       </c>
       <c r="W18" t="n">
-        <v>0.5196192860603333</v>
+        <v>0.5630295276641846</v>
       </c>
       <c r="X18" t="n">
-        <v>0.999793827533722</v>
+        <v>0.5525791645050049</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9020860195159912</v>
+        <v>0.1139838844537735</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.9999870657920836</v>
+        <v>0.8412332534790039</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9986947178840636</v>
+        <v>0.9046738147735596</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.9999723434448242</v>
+        <v>0.1724109351634979</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.999858260154724</v>
+        <v>0.1308188885450363</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.9996745586395264</v>
+        <v>0.5209061503410339</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9997833371162416</v>
+        <v>0.638411283493042</v>
       </c>
     </row>
     <row r="19">
@@ -2246,94 +2246,94 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9965237379074096</v>
+        <v>0.258280336856842</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8381533622741699</v>
+        <v>0.1178914159536361</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998602271080016</v>
+        <v>0.07461016625165939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999231457710266</v>
+        <v>0.07281461358070369</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999773502349854</v>
+        <v>0.0749770551919937</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7542188763618469</v>
+        <v>0.5485188961029053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9994364976882936</v>
+        <v>0.5530060529708862</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9998387694358826</v>
+        <v>0.0785371363162994</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4827243685722351</v>
+        <v>0.1727236360311508</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8850717544555664</v>
+        <v>0.07562340795993799</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9999914765357972</v>
+        <v>0.0856182649731636</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999450445175172</v>
+        <v>0.2921580672264099</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9999929666519164</v>
+        <v>0.0940773263573646</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999423623085022</v>
+        <v>0.0872528776526451</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9997860789299012</v>
+        <v>0.0911935865879058</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9866442680358888</v>
+        <v>0.1733896285295486</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9182956218719482</v>
+        <v>0.565610408782959</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9953081011772156</v>
+        <v>0.353808045387268</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9999233484268188</v>
+        <v>0.5894244313240051</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9998213052749634</v>
+        <v>0.5649265646934509</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9992992877960204</v>
+        <v>0.997339963912964</v>
       </c>
       <c r="W19" t="n">
-        <v>0.999898076057434</v>
+        <v>0.3102902770042419</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9809384942054749</v>
+        <v>0.1047229096293449</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.608847439289093</v>
+        <v>0.2799612879753113</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.9999940395355223</v>
+        <v>0.0873716548085212</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5357584357261658</v>
+        <v>0.1331427991390228</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.999999463558197</v>
+        <v>0.1137673407793045</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.5331465601921082</v>
+        <v>0.1224569529294967</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.9990445375442504</v>
+        <v>0.0882975310087204</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.999842405319214</v>
+        <v>0.1082824617624282</v>
       </c>
     </row>
     <row r="20">
@@ -2343,94 +2343,94 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999520182609558</v>
+        <v>0.5468721985816956</v>
       </c>
       <c r="C20" t="n">
-        <v>0.540553092956543</v>
+        <v>0.6560164093971252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6467756628990173</v>
+        <v>0.5484946370124817</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6758244633674622</v>
+        <v>0.5407171845436096</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999971389770508</v>
+        <v>0.0855457261204719</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5315109491348267</v>
+        <v>0.2191110104322433</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9998492002487184</v>
+        <v>0.5374035239219666</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5794019103050232</v>
+        <v>0.5298069715499878</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9153313040733336</v>
+        <v>0.2426975965499878</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9991866946220398</v>
+        <v>0.0934214442968368</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9792180061340332</v>
+        <v>0.5503740310668945</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0987384915351867</v>
+        <v>0.5638314485549927</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9999763369560242</v>
+        <v>0.5320869088172913</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5904086232185364</v>
+        <v>0.0747292041778564</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3719755411148071</v>
+        <v>0.0972110703587532</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9998944997787476</v>
+        <v>0.5670769810676575</v>
       </c>
       <c r="R20" t="n">
-        <v>0.999248743057251</v>
+        <v>0.1288279742002487</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5356446504592896</v>
+        <v>0.0799157470464706</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9997581243515016</v>
+        <v>0.1857543289661407</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5376071929931641</v>
+        <v>0.1336852312088012</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5301271080970764</v>
+        <v>0.1188939809799194</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9998786449432372</v>
+        <v>0.578152596950531</v>
       </c>
       <c r="X20" t="n">
-        <v>0.998885452747345</v>
+        <v>0.1355217099189758</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.99959397315979</v>
+        <v>0.4697990715503692</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.9999953508377076</v>
+        <v>0.5767230987548828</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9989027976989746</v>
+        <v>0.0715920478105545</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.9609959721565248</v>
+        <v>0.1055503413081169</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2056610733270645</v>
+        <v>0.5483936071395874</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.9992794990539552</v>
+        <v>0.2424772381782531</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.6436853408813477</v>
+        <v>0.548829197883606</v>
       </c>
     </row>
     <row r="21">
@@ -2440,94 +2440,94 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999978005886078</v>
+        <v>0.5392258763313293</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4278679490089416</v>
+        <v>0.08539263159036629</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999818801879884</v>
+        <v>0.5354300141334534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9979780912399292</v>
+        <v>0.08933247625827789</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999434351921082</v>
+        <v>0.0872209966182708</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5358271598815918</v>
+        <v>0.080711081624031</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5874648094177246</v>
+        <v>0.1023692041635513</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9994943141937256</v>
+        <v>0.5405430197715759</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5657779574394226</v>
+        <v>0.0819514691829681</v>
       </c>
       <c r="K21" t="n">
-        <v>0.999819040298462</v>
+        <v>0.999963402748108</v>
       </c>
       <c r="L21" t="n">
-        <v>0.999531865119934</v>
+        <v>0.5749050378799438</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9895508885383606</v>
+        <v>0.4912779629230499</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9365613460540771</v>
+        <v>0.9973146915435792</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6972724795341492</v>
+        <v>0.5361741185188293</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9997926950454712</v>
+        <v>0.554194450378418</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.981465220451355</v>
+        <v>0.5486476421356201</v>
       </c>
       <c r="R21" t="n">
-        <v>0.999398708343506</v>
+        <v>0.5641559362411499</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9999178051948548</v>
+        <v>0.5674262046813965</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9992641806602478</v>
+        <v>0.1021007895469665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5311962366104126</v>
+        <v>0.5486125946044922</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9997682571411132</v>
+        <v>0.0923658460378646</v>
       </c>
       <c r="W21" t="n">
-        <v>0.5410640239715576</v>
+        <v>0.08949046581983559</v>
       </c>
       <c r="X21" t="n">
-        <v>0.999500036239624</v>
+        <v>0.5275981426239014</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5604149699211121</v>
+        <v>0.08537190407514569</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.9998199939727784</v>
+        <v>0.0843963399529457</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5434134006500244</v>
+        <v>0.1027960106730461</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.9999896287918092</v>
+        <v>0.1383834779262542</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.9615725874900818</v>
+        <v>0.1710910201072693</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.999206840991974</v>
+        <v>0.1140103042125701</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.9998310804367064</v>
+        <v>0.0948705822229385</v>
       </c>
     </row>
     <row r="22">
@@ -2537,94 +2537,94 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5361308455467224</v>
+        <v>0.5448485612869263</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999719858169556</v>
+        <v>0.538402259349823</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9993427395820618</v>
+        <v>0.2250992953777313</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9991397261619568</v>
+        <v>0.5367152690887451</v>
       </c>
       <c r="F22" t="n">
-        <v>0.745587944984436</v>
+        <v>0.0882269665598869</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9998009204864502</v>
+        <v>0.0828257501125335</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9942496418952942</v>
+        <v>0.5325016975402832</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7638397216796875</v>
+        <v>0.5347129106521606</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6122602820396423</v>
+        <v>0.0771549195051193</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6888258457183838</v>
+        <v>0.915863275527954</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9997583627700806</v>
+        <v>0.5433172583580017</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9999788999557496</v>
+        <v>0.265023410320282</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9999997615814208</v>
+        <v>0.0790092200040817</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5424617528915405</v>
+        <v>0.1001731976866722</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9977751970291138</v>
+        <v>0.5404903888702393</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5379641056060791</v>
+        <v>0.5832699537277222</v>
       </c>
       <c r="R22" t="n">
-        <v>0.554477334022522</v>
+        <v>0.1002238392829895</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9999656081199646</v>
+        <v>0.3504442572593689</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9995385408401488</v>
+        <v>0.9828916788101196</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9999918937683104</v>
+        <v>0.972264051437378</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9999605417251588</v>
+        <v>0.1035243049263954</v>
       </c>
       <c r="W22" t="n">
-        <v>0.7886178493499756</v>
+        <v>0.5355846881866455</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5722314715385437</v>
+        <v>0.09965769946575161</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.617425799369812</v>
+        <v>0.1510971784591674</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.9999845027923584</v>
+        <v>0.5539173483848572</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5485407710075378</v>
+        <v>0.535635232925415</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.999970316886902</v>
+        <v>0.5437059998512268</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.9998957514762878</v>
+        <v>0.0716815963387489</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.9989097118377686</v>
+        <v>0.39406418800354</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9999846220016479</v>
+        <v>0.5381128787994385</v>
       </c>
     </row>
     <row r="23">
@@ -2634,94 +2634,94 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7947105169296265</v>
+        <v>0.08088845014572139</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999903917312622</v>
+        <v>0.2844344973564148</v>
       </c>
       <c r="D23" t="n">
-        <v>0.549737274646759</v>
+        <v>0.112354964017868</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999620914459229</v>
+        <v>0.2907008826732635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8624037504196167</v>
+        <v>0.7364866733551025</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5667715668678284</v>
+        <v>0.0898161828517913</v>
       </c>
       <c r="H23" t="n">
-        <v>0.999985694885254</v>
+        <v>0.5545867681503296</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5327382683753967</v>
+        <v>0.0745657607913017</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5324612855911255</v>
+        <v>0.0910003781318664</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9967944622039796</v>
+        <v>0.4482399225234985</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9999986886978148</v>
+        <v>0.555770218372345</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9999855756759644</v>
+        <v>0.5580751299858093</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9999347329139709</v>
+        <v>0.5932201147079468</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7012781500816345</v>
+        <v>0.9996160268783568</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1216896548867225</v>
+        <v>0.9993127584457396</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9991748332977296</v>
+        <v>0.9994776248931884</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9964980483055116</v>
+        <v>0.5359004735946655</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5353816747665405</v>
+        <v>0.573279857635498</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1600915491580963</v>
+        <v>0.1376950740814209</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9364649057388306</v>
+        <v>0.1948961615562439</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9996909499168396</v>
+        <v>0.1240160539746284</v>
       </c>
       <c r="W23" t="n">
-        <v>0.5497065186500549</v>
+        <v>0.5499048233032227</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9965749979019164</v>
+        <v>0.5335498452186584</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5827237963676453</v>
+        <v>0.5567807555198669</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.9541416764259338</v>
+        <v>0.0827904194593429</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.997818410396576</v>
+        <v>0.100190982222557</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.9996013641357422</v>
+        <v>0.0865938141942024</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9994776248931884</v>
+        <v>0.1264798790216446</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.6873560547828674</v>
+        <v>0.9992878437042236</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.6728755831718445</v>
+        <v>0.1164324209094047</v>
       </c>
     </row>
     <row r="24">
@@ -2731,94 +2731,94 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9949976205825806</v>
+        <v>0.5869426727294922</v>
       </c>
       <c r="C24" t="n">
-        <v>0.99994558095932</v>
+        <v>0.8109328746795654</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9996579885482788</v>
+        <v>0.5682423710823059</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8711647987365723</v>
+        <v>0.5407539010047913</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999314546585084</v>
+        <v>0.0919836610555648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9076195359230042</v>
+        <v>0.5649003982543945</v>
       </c>
       <c r="H24" t="n">
-        <v>0.998725414276123</v>
+        <v>0.5339416861534119</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1728138178586959</v>
+        <v>0.539918065071106</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9990341663360596</v>
+        <v>0.0928107351064682</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2087172120809555</v>
+        <v>0.0691737979650497</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9346712231636048</v>
+        <v>0.0763856098055839</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9998737573623656</v>
+        <v>0.093456894159317</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9998958110809326</v>
+        <v>0.09378154575824731</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7924495935440063</v>
+        <v>0.0801575556397438</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9997047185897828</v>
+        <v>0.5421947836875916</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6962882280349731</v>
+        <v>0.1097703427076339</v>
       </c>
       <c r="R24" t="n">
-        <v>0.99985933303833</v>
+        <v>0.5552355647087097</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5599365234375</v>
+        <v>0.2537575364112854</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9998667240142822</v>
+        <v>0.187300756573677</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4456746578216553</v>
+        <v>0.0807611271739006</v>
       </c>
       <c r="V24" t="n">
-        <v>0.999648094177246</v>
+        <v>0.0992947146296501</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5566584467887878</v>
+        <v>0.154720664024353</v>
       </c>
       <c r="X24" t="n">
-        <v>0.5542280673980713</v>
+        <v>0.1109590828418731</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9995012283325196</v>
+        <v>0.2880066335201263</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.998814582824707</v>
+        <v>0.592581033706665</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9998100996017456</v>
+        <v>0.1553370356559753</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.5738055109977722</v>
+        <v>0.5726182460784912</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.9036940336227416</v>
+        <v>0.9979228973388672</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.555535614490509</v>
+        <v>0.5576831698417664</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.710382342338562</v>
+        <v>0.146282210946083</v>
       </c>
     </row>
     <row r="25">
@@ -2828,94 +2828,94 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5467126965522766</v>
+        <v>0.5592652559280396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999919533729552</v>
+        <v>0.5426861643791199</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9994804263114928</v>
+        <v>0.090524211525917</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9987529516220092</v>
+        <v>0.5424011945724487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5496373176574707</v>
+        <v>0.318620502948761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.171513944864273</v>
+        <v>0.9983563423156738</v>
       </c>
       <c r="H25" t="n">
-        <v>0.99843430519104</v>
+        <v>0.8315116763114929</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9965976476669312</v>
+        <v>0.7893221974372864</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9995770454406738</v>
+        <v>0.6195720434188843</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8680896759033203</v>
+        <v>0.9999572038650512</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9988608360290528</v>
+        <v>0.1183076873421669</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9994621276855468</v>
+        <v>0.5597817301750183</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9998648166656494</v>
+        <v>0.1686873137950897</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9998831748962402</v>
+        <v>0.107067123055458</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9966057538986206</v>
+        <v>0.1267673075199127</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9897481203079224</v>
+        <v>0.1358451247215271</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6050484776496887</v>
+        <v>0.5352708697319031</v>
       </c>
       <c r="S25" t="n">
-        <v>0.999849259853363</v>
+        <v>0.5573544502258301</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9998574256896972</v>
+        <v>0.1218562275171279</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5403915643692017</v>
+        <v>0.4137060940265655</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2073490917682647</v>
+        <v>0.1050176471471786</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5442481637001038</v>
+        <v>0.5332692861557007</v>
       </c>
       <c r="X25" t="n">
-        <v>0.6671707630157471</v>
+        <v>0.9984924793243408</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9824231863021852</v>
+        <v>0.1027533784508705</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.9999090433120728</v>
+        <v>0.1575421094894409</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9979358911514282</v>
+        <v>0.564821183681488</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.8507646322250366</v>
+        <v>0.08186867833137509</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5609891414642334</v>
+        <v>0.1042121648788452</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.5466872453689575</v>
+        <v>0.1914108544588089</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.9998960494995116</v>
+        <v>0.09033094346523279</v>
       </c>
     </row>
   </sheetData>
